--- a/data/05_input/zm.cd20a.xlsx
+++ b/data/05_input/zm.cd20a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/BA943C77-B4D7-454A-8E37-9DF483D23996/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/3141187D-B8DB-4D86-85F6-4CE08A93DB60/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81360C6-00D2-8246-888D-12FC4D4CEAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9463955B-519C-CA41-8EC9-D92150AA0070}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2920" windowWidth="18840" windowHeight="10580" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="4920" yWindow="6520" windowWidth="19580" windowHeight="10240" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,9 +69,6 @@
     <t>Halo</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>s12</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A13"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,15 +575,15 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -595,24 +595,24 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -621,24 +621,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -647,24 +647,24 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -673,24 +673,24 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -699,24 +699,24 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -725,24 +725,24 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -751,24 +751,24 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -777,24 +777,24 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -803,24 +803,24 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -829,24 +829,24 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -855,10 +855,10 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
